--- a/database/templates_for_dor.xlsx
+++ b/database/templates_for_dor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dairekelly/Documents/dor/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BA265-CF7B-7846-B5D3-8DFD20569BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21A01F6-EB80-2E40-8812-EECE9D669D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="players" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="305">
   <si>
     <t>player_id</t>
   </si>
@@ -696,73 +674,283 @@
     <t>Enforcer</t>
   </si>
   <si>
-    <t xml:space="preserve">Jordie </t>
-  </si>
-  <si>
-    <t>Barrett</t>
-  </si>
-  <si>
-    <t>ct:5,wg:5,fb:4,FH:3</t>
-  </si>
-  <si>
     <t xml:space="preserve">James </t>
   </si>
   <si>
     <t>Ryan</t>
   </si>
   <si>
-    <t>sr:5, br:2</t>
-  </si>
-  <si>
-    <t>sr:5, br:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe </t>
-  </si>
-  <si>
-    <t>McCarthy</t>
-  </si>
-  <si>
     <t>personality</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrew </t>
-  </si>
-  <si>
     <t>Porter</t>
   </si>
   <si>
-    <t>lp:5, tp:4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabbah </t>
-  </si>
-  <si>
-    <t>Slimani</t>
-  </si>
-  <si>
     <t>tp:5</t>
   </si>
   <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Tamueifena</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Boyle</t>
-  </si>
-  <si>
-    <t>Aungier</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Clubman</t>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>lp:5</t>
+  </si>
+  <si>
+    <t>hk:5</t>
+  </si>
+  <si>
+    <t>sr:5</t>
+  </si>
+  <si>
+    <t>br:5</t>
+  </si>
+  <si>
+    <t>sh:5</t>
+  </si>
+  <si>
+    <t>fh:5</t>
+  </si>
+  <si>
+    <t>wg:5</t>
+  </si>
+  <si>
+    <t>ct:5</t>
+  </si>
+  <si>
+    <t>fb:5</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Sheehan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tadgh </t>
+  </si>
+  <si>
+    <t>Furlong</t>
+  </si>
+  <si>
+    <t>Beirne</t>
+  </si>
+  <si>
+    <t>Baird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van der Flier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack </t>
+  </si>
+  <si>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t>Jamison</t>
+  </si>
+  <si>
+    <t>Gibson-Park</t>
+  </si>
+  <si>
+    <t>Crowley</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>Bundee</t>
+  </si>
+  <si>
+    <t>Aki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gary </t>
+  </si>
+  <si>
+    <t>Ringrose</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Keenan</t>
+  </si>
+  <si>
+    <t>Ronan</t>
+  </si>
+  <si>
+    <t>Kelleher</t>
+  </si>
+  <si>
+    <t>Cian</t>
+  </si>
+  <si>
+    <t>Healy</t>
+  </si>
+  <si>
+    <t>Finlay</t>
+  </si>
+  <si>
+    <t>Bealham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iain </t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>Cooney</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Nash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellis </t>
+  </si>
+  <si>
+    <t>Genge</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">George  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ollie  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freddie  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandler  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry  </t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuart  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itoje  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curry  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earl  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchell  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murley  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slade  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrence  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freeman  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steward  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baxter  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heyes  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chessum  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunningham-South  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randall  </t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Muir</t>
   </si>
 </sst>
 </file>
@@ -1159,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -1321,149 +1509,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D2" s="6">
-        <v>34700</v>
+        <v>32874</v>
       </c>
       <c r="E2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" cm="1">
-        <f t="array" ref="L2">SUMPRODUCT(
-  (M2:AV2) *
-  (INDEX(weighting!$B:$B, MATCH(M$1:AV$1, weighting!$A:$A, 0)))
-) / 6</f>
-        <v>97.391666666666666</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2">
-        <v>18</v>
-      </c>
-      <c r="P2">
-        <v>13</v>
-      </c>
-      <c r="Q2">
-        <v>16</v>
-      </c>
-      <c r="R2">
-        <v>15</v>
-      </c>
-      <c r="S2">
-        <v>19</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>17</v>
-      </c>
-      <c r="V2">
-        <v>12</v>
-      </c>
-      <c r="W2">
-        <v>16</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>13</v>
-      </c>
-      <c r="Z2">
-        <v>17</v>
-      </c>
-      <c r="AA2">
-        <v>16</v>
-      </c>
-      <c r="AB2">
-        <v>20</v>
-      </c>
-      <c r="AC2">
-        <v>13</v>
-      </c>
-      <c r="AD2">
-        <v>17</v>
-      </c>
-      <c r="AE2">
-        <v>17</v>
-      </c>
-      <c r="AF2">
-        <v>19</v>
-      </c>
-      <c r="AG2">
-        <v>11</v>
-      </c>
-      <c r="AH2">
-        <v>13</v>
-      </c>
-      <c r="AI2">
-        <v>13</v>
-      </c>
-      <c r="AJ2">
-        <v>17</v>
-      </c>
-      <c r="AK2">
-        <v>15</v>
-      </c>
-      <c r="AL2">
-        <v>16</v>
-      </c>
-      <c r="AM2">
-        <v>18</v>
-      </c>
-      <c r="AN2">
-        <v>14</v>
-      </c>
-      <c r="AO2">
-        <v>12</v>
-      </c>
-      <c r="AP2">
-        <v>11</v>
-      </c>
-      <c r="AQ2">
-        <v>14</v>
-      </c>
-      <c r="AR2">
-        <v>14</v>
-      </c>
-      <c r="AS2">
-        <v>15</v>
-      </c>
-      <c r="AT2">
-        <v>14</v>
-      </c>
-      <c r="AU2">
-        <v>15</v>
-      </c>
-      <c r="AV2">
-        <v>14</v>
+      <c r="L2">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
@@ -1471,149 +1544,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D3" s="6">
-        <v>34732</v>
+        <v>32875</v>
       </c>
       <c r="E3">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F3">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" cm="1">
-        <f t="array" ref="L3">SUMPRODUCT(
-  (M3:AV3) *
-  (INDEX(weighting!$B:$B, MATCH(M$1:AV$1, weighting!$A:$A, 0)))
-) / 6</f>
-        <v>86.524999999999991</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <v>11</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>13</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <v>19</v>
-      </c>
-      <c r="U3">
-        <v>16</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
-        <v>7</v>
-      </c>
-      <c r="X3">
-        <v>7</v>
-      </c>
-      <c r="Y3">
-        <v>12</v>
-      </c>
-      <c r="Z3">
-        <v>5</v>
-      </c>
-      <c r="AA3">
-        <v>15</v>
-      </c>
-      <c r="AB3">
-        <v>16</v>
-      </c>
-      <c r="AC3">
-        <v>15</v>
-      </c>
-      <c r="AD3">
-        <v>15</v>
-      </c>
-      <c r="AE3">
-        <v>18</v>
-      </c>
-      <c r="AF3">
-        <v>13</v>
-      </c>
-      <c r="AG3">
-        <v>20</v>
-      </c>
-      <c r="AH3">
-        <v>4</v>
-      </c>
-      <c r="AI3">
-        <v>17</v>
-      </c>
-      <c r="AJ3">
-        <v>9</v>
-      </c>
-      <c r="AK3">
-        <v>8</v>
-      </c>
-      <c r="AL3">
-        <v>20</v>
-      </c>
-      <c r="AM3">
-        <v>14</v>
-      </c>
-      <c r="AN3">
-        <v>19</v>
-      </c>
-      <c r="AO3">
-        <v>6</v>
-      </c>
-      <c r="AP3">
-        <v>6</v>
-      </c>
-      <c r="AQ3">
-        <v>12</v>
-      </c>
-      <c r="AR3">
-        <v>11</v>
-      </c>
-      <c r="AS3">
-        <v>16</v>
-      </c>
-      <c r="AT3">
-        <v>8</v>
-      </c>
-      <c r="AU3">
-        <v>17</v>
-      </c>
-      <c r="AV3">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
@@ -1621,149 +1579,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D4" s="6">
-        <v>34733</v>
+        <v>32876</v>
       </c>
       <c r="E4">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F4">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
       <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4" cm="1">
-        <f t="array" ref="L4">SUMPRODUCT(
-  (M4:AV4) *
-  (INDEX(weighting!$B:$B, MATCH(M$1:AV$1, weighting!$A:$A, 0)))
-) / 6</f>
-        <v>84.99166666666666</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>11</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>13</v>
-      </c>
-      <c r="R4">
-        <v>4</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <v>16</v>
-      </c>
-      <c r="U4">
-        <v>15</v>
-      </c>
-      <c r="V4">
-        <v>11</v>
-      </c>
-      <c r="W4">
-        <v>8</v>
-      </c>
-      <c r="X4">
-        <v>6</v>
-      </c>
-      <c r="Y4">
-        <v>9</v>
-      </c>
-      <c r="Z4">
-        <v>11</v>
-      </c>
-      <c r="AA4">
-        <v>18</v>
-      </c>
-      <c r="AB4">
-        <v>13</v>
-      </c>
-      <c r="AC4">
-        <v>17</v>
-      </c>
-      <c r="AD4">
-        <v>14</v>
-      </c>
-      <c r="AE4">
-        <v>13</v>
-      </c>
-      <c r="AF4">
-        <v>14</v>
-      </c>
-      <c r="AG4">
-        <v>17</v>
-      </c>
-      <c r="AH4">
-        <v>8</v>
-      </c>
-      <c r="AI4">
-        <v>11</v>
-      </c>
-      <c r="AJ4">
-        <v>10</v>
-      </c>
-      <c r="AK4">
-        <v>7</v>
-      </c>
-      <c r="AL4">
-        <v>16</v>
-      </c>
-      <c r="AM4">
-        <v>13</v>
-      </c>
-      <c r="AN4">
-        <v>15</v>
-      </c>
-      <c r="AO4">
-        <v>8</v>
-      </c>
-      <c r="AP4">
-        <v>8</v>
-      </c>
-      <c r="AQ4">
-        <v>15</v>
-      </c>
-      <c r="AR4">
-        <v>13</v>
-      </c>
-      <c r="AS4">
-        <v>14</v>
-      </c>
-      <c r="AT4">
-        <v>10</v>
-      </c>
-      <c r="AU4">
-        <v>14</v>
-      </c>
-      <c r="AV4">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
@@ -1771,37 +1614,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D5" s="6">
-        <v>34703</v>
+        <v>32877</v>
       </c>
       <c r="E5">
         <v>183</v>
       </c>
       <c r="F5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
@@ -1809,31 +1649,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D6" s="6">
-        <v>32143</v>
+        <v>32878</v>
       </c>
       <c r="E6">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J6">
         <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1847,37 +1684,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D7" s="6">
-        <v>32144</v>
+        <v>32879</v>
       </c>
       <c r="E7">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
@@ -1885,37 +1719,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D8" s="6">
-        <v>32145</v>
+        <v>32880</v>
       </c>
       <c r="E8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>224</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.2">
@@ -1923,37 +1754,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D9" s="6">
-        <v>32146</v>
+        <v>32881</v>
       </c>
       <c r="E9">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.2">
@@ -1961,37 +1789,1329 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D10" s="6">
-        <v>32147</v>
+        <v>32882</v>
       </c>
       <c r="E10">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="6">
+        <v>32883</v>
+      </c>
+      <c r="E11">
+        <v>183</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="6">
+        <v>32884</v>
+      </c>
+      <c r="E12">
+        <v>183</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="6">
+        <v>32885</v>
+      </c>
+      <c r="E13">
+        <v>183</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="6">
+        <v>32886</v>
+      </c>
+      <c r="E14">
+        <v>183</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="6">
+        <v>32887</v>
+      </c>
+      <c r="E15">
+        <v>183</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="6">
+        <v>32888</v>
+      </c>
+      <c r="E16">
+        <v>183</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="6">
+        <v>32889</v>
+      </c>
+      <c r="E17">
+        <v>183</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>219</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="6">
+        <v>32890</v>
+      </c>
+      <c r="E18">
+        <v>183</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="6">
+        <v>32891</v>
+      </c>
+      <c r="E19">
+        <v>183</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
-        <v>227</v>
-      </c>
-      <c r="I10">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="6">
+        <v>32892</v>
+      </c>
+      <c r="E20">
+        <v>183</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>220</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="6">
+        <v>32893</v>
+      </c>
+      <c r="E21">
+        <v>183</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="6">
+        <v>32894</v>
+      </c>
+      <c r="E22">
+        <v>183</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="6">
+        <v>32895</v>
+      </c>
+      <c r="E23">
+        <v>183</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="6">
+        <v>32896</v>
+      </c>
+      <c r="E24">
+        <v>183</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="6">
+        <v>32897</v>
+      </c>
+      <c r="E25">
+        <v>183</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="J10">
+      <c r="H25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="6">
+        <v>32898</v>
+      </c>
+      <c r="E26">
+        <v>183</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="H26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="6">
+        <v>32899</v>
+      </c>
+      <c r="E27">
+        <v>183</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="6">
+        <v>32900</v>
+      </c>
+      <c r="E28">
+        <v>183</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="L10">
+      <c r="B29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="6">
+        <v>32901</v>
+      </c>
+      <c r="E29">
+        <v>183</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="6">
+        <v>32902</v>
+      </c>
+      <c r="E30">
+        <v>183</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="6">
+        <v>32903</v>
+      </c>
+      <c r="E31">
+        <v>183</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="6">
+        <v>32904</v>
+      </c>
+      <c r="E32">
+        <v>183</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D33" s="6">
+        <v>32905</v>
+      </c>
+      <c r="E33">
+        <v>183</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="6">
+        <v>32906</v>
+      </c>
+      <c r="E34">
+        <v>183</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>223</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="6">
+        <v>32907</v>
+      </c>
+      <c r="E35">
+        <v>183</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" s="6">
+        <v>32908</v>
+      </c>
+      <c r="E36">
+        <v>183</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" s="6">
+        <v>32909</v>
+      </c>
+      <c r="E37">
+        <v>183</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="6">
+        <v>32910</v>
+      </c>
+      <c r="E38">
+        <v>183</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="6">
+        <v>32911</v>
+      </c>
+      <c r="E39">
+        <v>183</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>226</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="6">
+        <v>32912</v>
+      </c>
+      <c r="E40">
+        <v>183</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" t="s">
+        <v>298</v>
+      </c>
+      <c r="D41" s="6">
+        <v>32913</v>
+      </c>
+      <c r="E41">
+        <v>183</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>218</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" t="s">
+        <v>299</v>
+      </c>
+      <c r="D42" s="6">
+        <v>32914</v>
+      </c>
+      <c r="E42">
+        <v>183</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>216</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="6">
+        <v>32915</v>
+      </c>
+      <c r="E43">
+        <v>183</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>220</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" s="6">
+        <v>32916</v>
+      </c>
+      <c r="E44">
+        <v>183</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="6">
+        <v>32917</v>
+      </c>
+      <c r="E45">
+        <v>183</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>222</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="6">
+        <v>32918</v>
+      </c>
+      <c r="E46">
+        <v>183</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="6">
+        <v>32919</v>
+      </c>
+      <c r="E47">
+        <v>183</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +3128,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4050,7 +5170,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4360,7 +5480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
